--- a/www/terminologies/ASS-A30-TypeAutorisation-Profession-EPARS.xlsx
+++ b/www/terminologies/ASS-A30-TypeAutorisation-Profession-EPARS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="80">
   <si>
     <t>Property</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250131120000</t>
+    <t>20250623120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -65,7 +65,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T12:00:00+01:00</t>
+    <t>2025-06-23T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -227,25 +227,25 @@
     <t>71</t>
   </si>
   <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>AM28</t>
+  </si>
+  <si>
+    <t>AM31</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>AM32</t>
+  </si>
+  <si>
+    <t>AM33</t>
+  </si>
+  <si>
     <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>AM28</t>
-  </si>
-  <si>
-    <t>AM31</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>AM32</t>
-  </si>
-  <si>
-    <t>AM33</t>
   </si>
   <si>
     <t>AM35</t>
@@ -1304,7 +1304,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1372,14 +1372,14 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -1392,20 +1392,20 @@
         <v>35</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -1418,13 +1418,13 @@
         <v>35</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1437,42 +1437,29 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>35</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/www/terminologies/ASS-A30-TypeAutorisation-Profession-EPARS.xlsx
+++ b/www/terminologies/ASS-A30-TypeAutorisation-Profession-EPARS.xlsx
@@ -110,13 +110,13 @@
     <t>Target</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R17-TypeAutorisation/FHIR/TRE-R17-TypeAutorisation</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R17-TypeAutorisation/FHIR/TRE-R17-TypeAutorisation|20250523120000</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_G15-ProfessionSante/FHIR/TRE-G15-ProfessionSante</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_G15-ProfessionSante/FHIR/TRE-G15-ProfessionSante|20250328120000</t>
   </si>
   <si>
     <t>AM01</t>
@@ -215,13 +215,13 @@
     <t>AM41</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R94-ProfessionSocial/FHIR/TRE-R94-ProfessionSocial</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R94-ProfessionSocial/FHIR/TRE-R94-ProfessionSocial|20241213120000</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R95-UsagerTitre/FHIR/TRE-R95-UsagerTitre</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R95-UsagerTitre/FHIR/TRE-R95-UsagerTitre|20241213120000</t>
   </si>
   <si>
     <t>71</t>
